--- a/Datasets/UCD_EngArch_Path_Mechanical_ME_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_Mechanical_ME_Modules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SATLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\GitHub\ChatGPTAssessment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0E69BA-07FF-47BF-81CA-98C5CBAB08C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE1813F-35DD-41A2-92B3-96FDFE4BD383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DACE1BDD-8768-4C7A-B6AC-6EF90ACFC2F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="75">
   <si>
     <t>Module</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>MEEN40430</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>EEEN40010</t>
@@ -623,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E5726C-863D-4F4C-BDFC-10125025EB46}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,8 +1606,8 @@
       <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
-        <v>71</v>
+      <c r="E38">
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>62</v>
@@ -1635,8 +1632,8 @@
       <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
-        <v>71</v>
+      <c r="E39">
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>62</v>
@@ -1661,8 +1658,8 @@
       <c r="D40">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
-        <v>71</v>
+      <c r="E40">
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>62</v>
@@ -1687,8 +1684,8 @@
       <c r="D41">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
-        <v>71</v>
+      <c r="E41">
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>62</v>
@@ -1713,8 +1710,8 @@
       <c r="D42">
         <v>4</v>
       </c>
-      <c r="E42" t="s">
-        <v>71</v>
+      <c r="E42">
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>62</v>
@@ -1739,8 +1736,8 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
-        <v>71</v>
+      <c r="E43">
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>62</v>
@@ -1765,8 +1762,8 @@
       <c r="D44">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
-        <v>71</v>
+      <c r="E44">
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>62</v>
@@ -1791,8 +1788,8 @@
       <c r="D45">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
-        <v>71</v>
+      <c r="E45">
+        <v>5</v>
       </c>
       <c r="F45" t="s">
         <v>62</v>
@@ -1817,8 +1814,8 @@
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
-        <v>71</v>
+      <c r="E46">
+        <v>5</v>
       </c>
       <c r="F46" t="s">
         <v>62</v>
@@ -1843,8 +1840,8 @@
       <c r="D47">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
-        <v>71</v>
+      <c r="E47">
+        <v>5</v>
       </c>
       <c r="F47" t="s">
         <v>62</v>
@@ -1869,8 +1866,8 @@
       <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48" t="s">
-        <v>71</v>
+      <c r="E48">
+        <v>5</v>
       </c>
       <c r="F48" t="s">
         <v>62</v>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -1895,8 +1892,8 @@
       <c r="D49">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
-        <v>71</v>
+      <c r="E49">
+        <v>5</v>
       </c>
       <c r="F49" t="s">
         <v>62</v>
@@ -1921,8 +1918,8 @@
       <c r="D50">
         <v>4</v>
       </c>
-      <c r="E50" t="s">
-        <v>71</v>
+      <c r="E50">
+        <v>5</v>
       </c>
       <c r="F50" t="s">
         <v>62</v>
@@ -1936,7 +1933,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -1947,8 +1944,8 @@
       <c r="D51">
         <v>4</v>
       </c>
-      <c r="E51" t="s">
-        <v>71</v>
+      <c r="E51">
+        <v>5</v>
       </c>
       <c r="F51" t="s">
         <v>62</v>
@@ -1962,22 +1959,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
         <v>74</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" t="s">
-        <v>75</v>
       </c>
       <c r="G52">
         <v>5</v>

--- a/Datasets/UCD_EngArch_Path_Mechanical_ME_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_Mechanical_ME_Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\GitHub\ChatGPTAssessment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE1813F-35DD-41A2-92B3-96FDFE4BD383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8AB16D-E852-4685-AB55-FA774F726BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DACE1BDD-8768-4C7A-B6AC-6EF90ACFC2F7}"/>
   </bookViews>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E5726C-863D-4F4C-BDFC-10125025EB46}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
